--- a/biology/Zoologie/Aphanus/Aphanus.xlsx
+++ b/biology/Zoologie/Aphanus/Aphanus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pachymerus
 Aphanus est un genre d'insectes du sous-ordre des hétéroptères (punaises) de la famille des Rhyparochromidae.
@@ -512,15 +524,51 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Fauna Europaea                                      (2 juill. 2014)[1], une seule espèce présente en Europe : Aphanus rolandri (Linnaeus, 1758).
-Espèces selon BioLib                    (2 juill. 2014)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Fauna Europaea                                      (2 juill. 2014), une seule espèce présente en Europe : Aphanus rolandri (Linnaeus, 1758).
+Espèces selon BioLib                    (2 juill. 2014) :
 Aphanus littoralis Distant, 1918
-Aphanus rolandri (Linnaeus, 1758)
-Espèces fossiles
-Selon Paleobiology Database, en 2022, les espèces fossiles[3] s'établissent à 16 espèces :
-Aphanus contractus Théobald 1937[4]
+Aphanus rolandri (Linnaeus, 1758)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Aphanus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aphanus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Espèces fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database, en 2022, les espèces fossiles s'établissent à 16 espèces :
+Aphanus contractus Théobald 1937
 Aphanus dilatatus Théobald 1937
 Aphanus murchisonae Heer 1853
 Aphanus pulchellus Heer 1853
